--- a/other-approaches/CP-CPLEX/nrp_cplex_exp_results.xlsx
+++ b/other-approaches/CP-CPLEX/nrp_cplex_exp_results.xlsx
@@ -475,7 +475,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -497,7 +497,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -519,7 +519,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -563,7 +563,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -607,7 +607,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -629,7 +629,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
@@ -693,7 +693,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.042</v>
+        <v>0.038</v>
       </c>
     </row>
   </sheetData>
@@ -763,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>12.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -807,10 +807,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -851,10 +851,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -876,7 +876,7 @@
         <v>12.5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -895,10 +895,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
@@ -920,7 +920,7 @@
         <v>12.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10">
@@ -939,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F10" t="n">
         <v>0.06</v>
@@ -961,10 +961,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12">
@@ -984,7 +984,7 @@
         <v>12.53</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05500000000000001</v>
+        <v>0.05700000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1079,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -1123,7 +1123,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
@@ -1275,7 +1275,7 @@
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>0.079</v>
+        <v>0.08099999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1348,7 @@
         <v>19.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -1370,7 +1370,7 @@
         <v>19.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -1414,7 +1414,7 @@
         <v>19.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -1436,7 +1436,7 @@
         <v>19.4</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -1480,7 +1480,7 @@
         <v>19.4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -1524,7 +1524,7 @@
         <v>19.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="11">
@@ -1546,7 +1546,7 @@
         <v>19.4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
@@ -1566,7 +1566,7 @@
         <v>19.4</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.08199999999999999</v>
       </c>
     </row>
   </sheetData>
